--- a/data/trans_camb/P38B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Habitat-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P38B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,59</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,06; 10,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,63; 16,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,92; 3,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,48; 9,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,06; 5,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 10,03</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,29%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,25; 13,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,02; 21,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,71; 4,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,99; 10,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,94; 6,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,82; 11,86</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,12</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,25; 4,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,08; 7,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 6,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 10,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 4,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,16; 8,26</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,08%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,04; 5,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,53; 9,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 7,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,45; 12,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 5,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,65; 9,99</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,18</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,96; 4,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,55; -2,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,5; 7,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,65; 0,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 4,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,98; -1,85</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,63%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,17%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,53; 5,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,95; -2,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,69; 8,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,43; 1,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,33; 5,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,61; -2,29</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,65</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,83; 2,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,07; 1,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,08; 1,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,65; 2,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,4; 0,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,75; 1,35</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,36%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,92%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,35%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,92%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,32%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,05%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,84; 2,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,47; 2,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,58; 1,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,26; 2,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,99; 0,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,56; 1,59</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,17</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,03; 3,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,56; 2,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,04; -1,95</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,27; 0,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,21; -0,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,26; 0,46</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,71%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,68%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,74%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,45%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,46%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,55%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,87; 4,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,73; 3,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,96; -2,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,1; 0,44</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,07; -0,64</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,19; 0,54</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,76</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 1,46</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,35; -0,36</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 1,05</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 0,93</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 0,92</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,98; -0,07</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,36%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,43%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,36%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,07%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 1,79</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,89; -0,49</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 1,21</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,43; 1,08</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 1,08</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,69; -0,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,83</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>5,37</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 10,74</t>
+          <t>-3,46; 4,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 16,58</t>
+          <t>-1,07; 8,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 3,9</t>
+          <t>-1,95; 5,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 9,04</t>
+          <t>3,33; 9,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 5,21</t>
+          <t>-1,58; 3,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 10,03</t>
+          <t>2,37; 8,2</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,17%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,32%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>6,34%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 13,57</t>
+          <t>-4,08; 5,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 21,54</t>
+          <t>-1,16; 10,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 4,53</t>
+          <t>-2,22; 6,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 10,67</t>
+          <t>3,83; 11,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 6,31</t>
+          <t>-1,84; 4,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 11,86</t>
+          <t>2,77; 9,87</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>-19,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>-11,8</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 4,61</t>
+          <t>-2,96; 4,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 7,82</t>
+          <t>-49,99; -1,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 6,53</t>
+          <t>1,5; 7,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 10,6</t>
+          <t>-4,59; 1,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 4,53</t>
+          <t>0,28; 4,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 8,26</t>
+          <t>-37,05; -1,64</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>-23,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>-1,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>-14,06%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 5,75</t>
+          <t>-3,53; 5,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 9,64</t>
+          <t>-60,49; -2,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 7,87</t>
+          <t>1,69; 8,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 12,84</t>
+          <t>-5,23; 2,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 5,45</t>
+          <t>0,33; 5,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 9,99</t>
+          <t>-43,89; -1,96</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,84</t>
+          <t>-3,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>-1,34</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 4,42</t>
+          <t>-5,83; 2,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,55; -2,22</t>
+          <t>-8,39; 1,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 7,1</t>
+          <t>-5,08; 1,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 0,92</t>
+          <t>-5,05; 5,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 4,79</t>
+          <t>-4,4; 0,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,98; -1,85</t>
+          <t>-4,9; 4,27</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>-2,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-9,63%</t>
+          <t>-4,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>-2,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,99%</t>
+          <t>-0,6%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>-2,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-6,17%</t>
+          <t>-1,55%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 5,53</t>
+          <t>-6,84; 2,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,95; -2,76</t>
+          <t>-9,92; 2,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,69; 8,34</t>
+          <t>-5,58; 1,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 1,06</t>
+          <t>-5,58; 6,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 5,82</t>
+          <t>-4,99; 0,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,61; -2,29</t>
+          <t>-5,62; 4,95</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>-6,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,02</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-3,8</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 2,08</t>
+          <t>-4,03; 3,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 1,84</t>
+          <t>-5,22; 3,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 1,02</t>
+          <t>-8,04; -1,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 2,41</t>
+          <t>-26,16; -0,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 0,35</t>
+          <t>-5,21; -0,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 1,35</t>
+          <t>-13,53; 0,1</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,36%</t>
+          <t>-0,71%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,92%</t>
+          <t>-1,08%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,35%</t>
+          <t>-5,74%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,92%</t>
+          <t>-7,31%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,32%</t>
+          <t>-3,46%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-3,05%</t>
+          <t>-4,47%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 2,58</t>
+          <t>-4,87; 4,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 2,25</t>
+          <t>-6,28; 3,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 1,17</t>
+          <t>-8,96; -2,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 2,76</t>
+          <t>-29,71; -0,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 0,4</t>
+          <t>-6,07; -0,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 1,59</t>
+          <t>-15,91; 0,11</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-6,91</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-5,06</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>-3,95</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 3,32</t>
+          <t>-2,05; 1,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 2,72</t>
+          <t>-21,67; -0,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,04; -1,95</t>
+          <t>-2,08; 1,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 0,3</t>
+          <t>-7,44; 1,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,21; -0,54</t>
+          <t>-1,55; 0,92</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 0,46</t>
+          <t>-13,05; -0,21</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,71%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,68%</t>
+          <t>-8,42%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-5,74%</t>
+          <t>-0,43%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-3,45%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-3,46%</t>
+          <t>-0,36%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-2,55%</t>
+          <t>-4,64%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 4,18</t>
+          <t>-2,47; 1,79</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 3,36</t>
+          <t>-26,73; -0,65</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-8,96; -2,21</t>
+          <t>-2,35; 1,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 0,44</t>
+          <t>-8,44; 1,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-6,07; -0,64</t>
+          <t>-1,81; 1,08</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 0,54</t>
+          <t>-15,24; -0,25</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-2,76</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-1,08</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-1,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-2,05; 1,46</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-7,35; -0,36</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-2,08; 1,05</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-3,02; 0,93</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-1,55; 0,92</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-3,98; -0,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-0,31%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-3,36%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-0,43%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-1,23%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-0,36%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-2,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-2,47; 1,79</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-8,89; -0,49</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-2,35; 1,21</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-3,43; 1,08</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-1,81; 1,08</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-4,69; -0,09</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P38B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Habitat-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 4,63</t>
+          <t>-2,96; 5,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 8,64</t>
+          <t>-0,79; 8,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 5,38</t>
+          <t>-2,31; 5,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 9,96</t>
+          <t>2,96; 9,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 3,95</t>
+          <t>-1,79; 3,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 8,2</t>
+          <t>2,17; 8,03</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 5,71</t>
+          <t>-3,47; 6,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 10,78</t>
+          <t>-0,91; 11,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 6,42</t>
+          <t>-2,65; 5,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,83; 11,94</t>
+          <t>3,33; 11,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 4,76</t>
+          <t>-2,1; 4,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 9,87</t>
+          <t>2,57; 9,62</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 4,42</t>
+          <t>-2,62; 4,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-49,99; -1,72</t>
+          <t>-47,74; -2,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 7,1</t>
+          <t>1,54; 7,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 1,78</t>
+          <t>-4,51; 1,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 4,79</t>
+          <t>0,37; 5,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,05; -1,64</t>
+          <t>-35,11; -1,49</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 5,53</t>
+          <t>-3,14; 5,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,49; -2,17</t>
+          <t>-59,04; -2,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 8,34</t>
+          <t>1,76; 8,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 2,13</t>
+          <t>-5,13; 1,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 5,82</t>
+          <t>0,42; 6,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,89; -1,96</t>
+          <t>-41,74; -1,85</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 2,08</t>
+          <t>-6,15; 2,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 1,66</t>
+          <t>-8,21; 1,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 1,02</t>
+          <t>-5,26; 0,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 5,3</t>
+          <t>-5,17; 5,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 0,35</t>
+          <t>-4,56; 0,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 4,27</t>
+          <t>-5,06; 4,0</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 2,58</t>
+          <t>-7,22; 2,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 2,07</t>
+          <t>-9,75; 2,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 1,17</t>
+          <t>-5,73; 0,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 6,04</t>
+          <t>-5,71; 5,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 0,4</t>
+          <t>-5,21; 0,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 4,95</t>
+          <t>-5,77; 4,75</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 3,32</t>
+          <t>-4,08; 2,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 3,11</t>
+          <t>-5,27; 2,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,04; -1,95</t>
+          <t>-8,42; -2,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,16; -0,09</t>
+          <t>-22,49; 0,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,21; -0,54</t>
+          <t>-5,09; -0,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 0,1</t>
+          <t>-14,66; 0,08</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 4,18</t>
+          <t>-4,87; 3,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 3,89</t>
+          <t>-6,35; 3,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,96; -2,21</t>
+          <t>-9,4; -2,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-29,71; -0,11</t>
+          <t>-25,29; 0,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,07; -0,64</t>
+          <t>-6,0; -0,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 0,11</t>
+          <t>-17,27; 0,09</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,46</t>
+          <t>-2,18; 1,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-21,67; -0,53</t>
+          <t>-23,96; -0,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,05</t>
+          <t>-1,93; 1,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 1,36</t>
+          <t>-6,32; 1,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,92</t>
+          <t>-1,54; 0,92</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,05; -0,21</t>
+          <t>-13,92; -0,04</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,79</t>
+          <t>-2,64; 2,01</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-26,73; -0,65</t>
+          <t>-29,39; -0,44</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 1,21</t>
+          <t>-2,16; 1,38</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 1,55</t>
+          <t>-7,13; 1,61</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,08</t>
+          <t>-1,78; 1,1</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-15,24; -0,25</t>
+          <t>-16,25; -0,05</t>
         </is>
       </c>
     </row>
